--- a/DotNetExcel/StarkBankExcel/StarkBank.xlsx
+++ b/DotNetExcel/StarkBankExcel/StarkBank.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stark - Admin\Starkbank-Code\Git-Excel\DotNetExcel\StarkBankExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756628CA-CCCF-41CC-AAC4-2CDC4D39A2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0936DBA-B323-40F6-9A27-44D018DB9561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7785" firstSheet="1" activeTab="1" xr2:uid="{DD233689-9B57-48BF-9576-9FA43391D3F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Credentials" sheetId="2" state="hidden" r:id="rId1"/>
@@ -371,7 +371,7 @@
     <t xml:space="preserve">        Nome do Sacador Avalista</t>
   </si>
   <si>
-    <t>Stark Bank SDK Excel - v3.0.6</t>
+    <t>Stark Bank SDK Excel - v3.0.7</t>
   </si>
 </sst>
 </file>
@@ -632,7 +632,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -649,14 +649,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -666,7 +666,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -683,7 +683,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -700,7 +700,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2EF132486228D8243F428A6C298561D10E6622"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="28A34ED1D2633F2429D291182761C070389522"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -717,14 +717,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -734,14 +734,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -768,14 +768,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="71F4FF3617034374D487A4537B51302A0C89B7"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FE4E9EDE5117D54C395AB0B52D849B4179075"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -785,19 +785,87 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="80815DC5B82C3B8498489E26894C5C52875E28"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43935BDA7439194471449D234CFD527D9886B4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3757"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1588"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX19.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23FDAD7A329F60245422A56B22EA1482F84402"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -814,29 +882,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="10F831FB013D30140151820D1AB0BB140FD961"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX20.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4DD8155564BBBB442F449A794155F293DF1F94"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -848,29 +899,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="576D85FB2525B8547055A14351ED593B73E215"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3201"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX22.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D72D142762FA7648186B99160B384DA4EEAD6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -882,7 +916,24 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -899,58 +950,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="21156A5D42671D24110290D22610E26CEF0122"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="36BF4D76D36CAA346A9392633D35C8E7F4F293"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4BDD5BFBC494C944E75484BA43B9AFC575EDE4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F70BF05619C7F14D001A2031EA2288CEEF621"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -967,114 +1069,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX28.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3AA2985733B4083434D3B3DA395B83B5AB5FB3"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX29.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="29E4B6D5F2B5EF24B732AC612476A095FC12F2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D58F8DCE161321493A19D8C10118F3363B411"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX30.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1BF3F766D1EC8E14D641AB8818D8695A960D41"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX31.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6EAFFE9C06D4276431A6BB2F6072D3CF2C1786"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX32.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="7C9BBDE4E751B574F557BC077FC280926F0487"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX33.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1091,7 +1091,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1125,7 +1125,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4725C0A2E4AB894430D4AEF74EE21D1AD6A734"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F27997732C2CB2441C298BB24A21C18565F42"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1142,7 +1142,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5F3C3A5AA5DBB654AFD5A7C25896612CBE6DC5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D3C8440119274147F5190E81CB29314F1A0B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1159,19 +1159,53 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
 <file path=xl/activeX/activeX39.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1626B229C1652514446181B314A00A77AF6681"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1188,58 +1222,109 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19A5453E610F18142DA1BAA91D29A587ED2E11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="6D5513A176D11B6489268BF06C26AC9C7986A6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4313"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3678"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1640"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="8A681C04683975842508B2258073BEA1C60FD8"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="9C5D0F81D9A7DC9451D986E29349E294E0E0F9"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1256,12 +1341,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="581AFF66D5395E54CBC5BEBA52A895EF8D96F5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1273,12 +1358,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4EDC5AE2D4725F442D54BDB348E5FBB86B52C4"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1290,12 +1375,29 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3443F6D933A917348513994830A35447867593"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1307,41 +1409,41 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2F31A0EA52B80A243F02887A226A80BA2346A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3334"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1217"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="190EB7A1C18BFD142EB1A75D1D8ECE9AC6A921"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3096"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1244"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1358,109 +1460,58 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43443F65340DC5448034B84249A78BF6899C14"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="393B0D4DB376B1348C53AA283ED005A8E39383"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX51.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2FAFF23AA2246924D782B58F21CB01DE2B8C82"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX52.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="192AED9321906F1430518AA91C61F691A49AE1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX53.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="64B7B760262CDD643836A79A641DDB36424F16"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
@@ -1477,63 +1528,12 @@
 </ax:ocx>
 </file>
 
-<file path=xl/activeX/activeX55.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="209AD430929B0C246352BB46205966BBA32BE2"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3836"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1773"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX56.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="340115F7C331F8342C23902032B2E1FE922923"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3810"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1799"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX57.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="41CF79F694E72D449634A36244C31DA4F7C064"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3969"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1720"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
 <file path=xl/activeX/activeX58.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1550,7 +1550,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1567,14 +1567,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1601,7 +1601,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4F2081B3648833443864BB8143FD2C02F9E634"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="23587ECD629DA1245032AC232F0D6B45106E92"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1618,7 +1618,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5FCC13B9257A75548E65A9E458AA0E6A413BF5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1FF48C76A17A8C14A1D1B461189CB6BA129791"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1635,7 +1635,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1652,7 +1652,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1686,7 +1686,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="207D2713820AB8246622A7CD26A57A9DCA2162"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="42576A9D548EA54490F4BA2045852D9EEA0264"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1703,7 +1703,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="19726D3BD1AD01142191B2C41B5B2D13E650B1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4A34D975B853543985A7E75523690B60EC35"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1720,14 +1720,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1737,7 +1737,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1788,7 +1788,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="4E23FE0EC4C93C4470948DA849AEEC73F9C744"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="232EEE2C927B21244D728DA228DC1AAB22C9E2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1805,14 +1805,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="51A95A66553942547D759A7153A00908FCA885"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1B7A977A61ADF41453E1BBBE1183429619DB11"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3281"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1822,7 +1822,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1839,13 +1839,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1873,13 +1873,13 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="245B62680258F8244B928BF02F0D73C394B3A2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="43953CE6E45013447B8491244183EC3B869614"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3149"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1535"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
@@ -1890,7 +1890,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="632A921A961CC6648D5697386AA1DF460A0236"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="5B4126E875ABC55427F5B28E55218522354BA5"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1907,7 +1907,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1924,7 +1924,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1941,14 +1941,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1CC3318201EE2A1421C19CEB15987574AED511"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1D1500907189BD14DA51B2181B162FBD75FE31"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -1975,7 +1975,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1441CBD291E7921466418469122C7CFF2CD931"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="3C148BBC83328034CB4383F53575DFC2E2D673"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -1992,7 +1992,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="676BBF00A6812B64BBB6BA716DB953807A8EA6"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="482B56B2D4F09144EA9495AD4E1391B3ADA544"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2009,14 +2009,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2026,7 +2026,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2060,7 +2060,7 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="2596667A2285C4241122B3CF25CD7B218043C2"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="423CD9C0343555445FB48C9D4CF7D65D1F3284"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
@@ -2077,14 +2077,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1F6AA8BD81815014DA61A5D71870FA81614161"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="560AC6FB15F17754F6558A0F58035E0AF7ED85"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="3175"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1482"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3228"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1429"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -2094,14 +2094,14 @@
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="1DB344D2F14249140061BD5D11E614111405C1"/>
+  <ax:ocxPr ax:name="Cookie" ax:value="17053D61D1F15A1482019B2C1A4E6D57E3A971"/>
   <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
   <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="4392"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="1376"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="4419"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1455"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -8003,8 +8003,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16390" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16385" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1162050</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16386" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1076325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16387" r:id="rId10" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1200150</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>971550</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="16388" r:id="rId12" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -8023,132 +8148,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="16389" r:id="rId4" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>971550</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16388" r:id="rId6" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1076325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16387" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16386" r:id="rId10" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1162050</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16385" r:id="rId12" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="16390" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="16389" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8255,8 +8255,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1">
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>552450</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>419100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>142875</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73732" r:id="rId3" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1304925</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73731" r:id="rId5" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>638175</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>466725</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="73730" r:id="rId7" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -8275,82 +8350,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="73729" r:id="rId3" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>638175</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>466725</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73730" r:id="rId5" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1304925</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73731" r:id="rId7" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId10">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>552450</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>419100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="73732" r:id="rId9" name="_ActiveXWrapper4"/>
+        <control shapeId="73729" r:id="rId9" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8496,52 +8496,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
+                <xdr:colOff>1266825</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:colOff>2428875</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52225" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="52229" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>2514600</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52226" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="52228" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8571,52 +8571,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2514600</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52228" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="52226" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>1266825</xdr:colOff>
+                <xdr:colOff>19050</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
-                <xdr:colOff>2428875</xdr:colOff>
+                <xdr:colOff>1181100</xdr:colOff>
                 <xdr:row>6</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="52229" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="52225" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8732,52 +8732,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>238125</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20485" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="20481" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>390525</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>219075</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20484" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="20482" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8807,52 +8807,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>390525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>219075</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20482" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="20484" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>238125</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="20481" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="20485" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -8947,52 +8947,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>76200</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1257300</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8193" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="8197" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>85725</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>152400</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8194" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="8196" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9022,52 +9022,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>85725</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
+                <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8196" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="8194" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>76200</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1257300</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="8197" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="8193" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9164,18 +9164,18 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1485900</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>828675</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9184,32 +9184,32 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49157" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="49158" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>942975</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1495425</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>2076450</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49156" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="49154" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9239,43 +9239,43 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1495425</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>942975</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>2076450</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>95250</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49154" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="49156" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1485900</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>828675</xdr:colOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>152400</xdr:rowOff>
               </to>
@@ -9284,7 +9284,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="49158" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="49157" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9400,52 +9400,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1123950</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1209675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>895350</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>981075</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24580" r:id="rId4" name="_ActiveXWrapper4"/>
+        <control shapeId="24582" r:id="rId4" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3">
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>1276350</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1047750</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24579" r:id="rId6" name="_ActiveXWrapper3"/>
+        <control shapeId="24577" r:id="rId6" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9475,52 +9475,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1">
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>1276350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1047750</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24577" r:id="rId10" name="_ActiveXWrapper1"/>
+        <control shapeId="24579" r:id="rId10" name="_ActiveXWrapper3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10">
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>1209675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1123950</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>981075</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>895350</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="24582" r:id="rId12" name="_ActiveXWrapper10"/>
+        <control shapeId="24580" r:id="rId12" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9605,52 +9605,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5">
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>1333500</xdr:colOff>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1114425</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6149" r:id="rId4" name="_ActiveXWrapper5"/>
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4">
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1247775</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>142875</xdr:rowOff>
+                <xdr:rowOff>133350</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1028700</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1171575</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6148" r:id="rId6" name="_ActiveXWrapper4"/>
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9680,52 +9680,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2">
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1247775</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
+                <xdr:rowOff>142875</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1171575</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1028700</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId10" name="_ActiveXWrapper2"/>
+        <control shapeId="6148" r:id="rId10" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1">
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
+                <xdr:colOff>1333500</xdr:colOff>
                 <xdr:row>4</xdr:row>
                 <xdr:rowOff>47625</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1114425</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6145" r:id="rId12" name="_ActiveXWrapper1"/>
+        <control shapeId="6149" r:id="rId12" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -9738,7 +9738,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -10257,18 +10257,143 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1046" r:id="rId4" name="_ActiveXWrapper13"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>371475</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1045" r:id="rId6" name="_ActiveXWrapper12"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>133350</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1041" r:id="rId8" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1040" r:id="rId10" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>20</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1039" r:id="rId12" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>16</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10277,132 +10402,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1044" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1043" r:id="rId6" name="_ActiveXWrapper10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1042" r:id="rId8" name="_ActiveXWrapper9"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>247650</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>171450</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1035" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>1048575</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1036" r:id="rId14" name="_ActiveXWrapper3"/>
+        <control shapeId="1038" r:id="rId14" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10432,18 +10432,118 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5">
+        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3">
           <controlPr defaultSize="0" autoLine="0" r:id="rId19">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>1048575</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1036" r:id="rId18" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>533400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1035" r:id="rId20" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>171450</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId22" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>57150</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1042" r:id="rId24" name="_ActiveXWrapper9"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>0</xdr:col>
+                <xdr:colOff>247650</xdr:colOff>
                 <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>57150</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
                 <xdr:row>16</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
@@ -10452,124 +10552,24 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1038" r:id="rId18" name="_ActiveXWrapper5"/>
+        <control shapeId="1043" r:id="rId26" name="_ActiveXWrapper10"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId21">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1039" r:id="rId20" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId23">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>20</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1040" r:id="rId22" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>133350</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1041" r:id="rId24" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId27">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>14</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>10</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>371475</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1045" r:id="rId26" name="_ActiveXWrapper12"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13">
+        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11">
           <controlPr defaultSize="0" autoLine="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>533400</xdr:colOff>
-                <xdr:row>10</xdr:row>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>14</xdr:row>
                 <xdr:rowOff>28575</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>12</xdr:row>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>16</xdr:row>
                 <xdr:rowOff>171450</xdr:rowOff>
               </to>
             </anchor>
@@ -10577,7 +10577,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1046" r:id="rId28" name="_ActiveXWrapper13"/>
+        <control shapeId="1044" r:id="rId28" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -10748,52 +10748,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1019175</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>876300</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>714375</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>676275</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37892" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="37896" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId7">
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>857250</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>771525</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>685800</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
+                <xdr:rowOff>19050</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37893" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="37895" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10823,52 +10823,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>771525</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>857250</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>161925</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>685800</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
+                <xdr:rowOff>38100</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37895" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="37893" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" autoPict="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>876300</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1019175</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>104775</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>676275</xdr:colOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>714375</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>114300</xdr:rowOff>
+                <xdr:rowOff>123825</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="37896" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="37892" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11029,8 +11029,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11">
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>180975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28678" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>171450</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28677" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>314325</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>142875</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>28575</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="28676" r:id="rId8" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11049,82 +11124,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="28679" r:id="rId4" name="_ActiveXWrapper11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>314325</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>142875</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28676" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>171450</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28677" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>180975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="28678" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="28679" r:id="rId10" name="_ActiveXWrapper11"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11199,8 +11199,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1219200</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>990600</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10244" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1323975</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1095375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10243" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>19050</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1181100</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="10242" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -11219,82 +11294,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="10241" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>19050</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1181100</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10242" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1323975</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1095375</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10243" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1219200</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>990600</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="10244" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="10241" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11509,8 +11509,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4">
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>590550</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81927" r:id="rId4" name="_ActiveXWrapper6"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>161925</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81926" r:id="rId6" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>47625</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>1371600</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81921" r:id="rId8" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>104775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81922" r:id="rId10" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>85725</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>161925</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="81923" r:id="rId12" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>8</xdr:col>
@@ -11529,132 +11654,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="81925" r:id="rId4" name="_ActiveXWrapper4"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81923" r:id="rId6" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>104775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81922" r:id="rId8" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1371600</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81921" r:id="rId10" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>161925</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81926" r:id="rId12" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>590550</xdr:colOff>
-                <xdr:row>7</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="81927" r:id="rId14" name="_ActiveXWrapper6"/>
+        <control shapeId="81925" r:id="rId14" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -11732,52 +11732,52 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>66675</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>1381125</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>1228725</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>1152525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4097" r:id="rId4" name="_ActiveXWrapper1"/>
+        <control shapeId="4101" r:id="rId4" name="_ActiveXWrapper5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2">
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>95250</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>180975</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4098" r:id="rId6" name="_ActiveXWrapper2"/>
+        <control shapeId="4100" r:id="rId6" name="_ActiveXWrapper4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -11807,52 +11807,52 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4">
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2">
           <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>4</xdr:col>
                 <xdr:colOff>1200150</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4100" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="4098" r:id="rId10" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5">
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId13">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>1381125</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>95250</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>66675</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>1152525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>1228725</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>180975</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="4101" r:id="rId12" name="_ActiveXWrapper5"/>
+        <control shapeId="4097" r:id="rId12" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12057,8 +12057,83 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1">
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>95250</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>647700</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59401" r:id="rId4" name="_ActiveXWrapper4"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>485775</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>695325</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59400" r:id="rId6" name="_ActiveXWrapper3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>800100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>9525</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>66675</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="59399" r:id="rId8" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>4</xdr:col>
@@ -12077,82 +12152,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="59398" r:id="rId4" name="_ActiveXWrapper1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>800100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>9525</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59399" r:id="rId6" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>695325</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59400" r:id="rId8" name="_ActiveXWrapper3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>95250</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>647700</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="59401" r:id="rId10" name="_ActiveXWrapper4"/>
+        <control shapeId="59398" r:id="rId10" name="_ActiveXWrapper1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -12233,8 +12233,133 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6">
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>542925</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3073" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>561975</xdr:colOff>
+                <xdr:row>4</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>295275</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId6" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>28575</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3075" r:id="rId8" name="_ActiveXWrapper7"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>723900</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>457200</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3076" r:id="rId10" name="_ActiveXWrapper8"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>581025</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>123825</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>276225</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3077" r:id="rId12" name="_ActiveXWrapper5"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -12253,132 +12378,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3078" r:id="rId4" name="_ActiveXWrapper6"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>276225</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3077" r:id="rId6" name="_ActiveXWrapper5"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>723900</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>457200</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3076" r:id="rId8" name="_ActiveXWrapper8"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId11">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>123825</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>581025</xdr:colOff>
-                <xdr:row>3</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3075" r:id="rId10" name="_ActiveXWrapper7"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId13">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>5</xdr:col>
-                <xdr:colOff>561975</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>295275</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3074" r:id="rId12" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId15">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3073" r:id="rId14" name="_ActiveXWrapper1"/>
+        <control shapeId="3078" r:id="rId14" name="_ActiveXWrapper6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
